--- a/Data/tweets.xlsx
+++ b/Data/tweets.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2053,7 +2053,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111">
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -3160,6 +3160,780 @@
         <v>0</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>1272208663009058816</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Antara hikmah covid-19. Alam makin cantik. Awan makin biru. Pantai pn cantik. Tiada pencemaran. Dah lame tak amek gambar. RINDU. Alhamdulillah Allah bagi peluang. SYUKUR.
+.
+.
+.
+#photography #pantai #telukbatik #shotbyiphone #vsco #howimissedit #perak #roadtrip #unplannedtrip https://t.co/noftCIWzwW</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>1273628605822545920</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Hah Dateng lg ? Pengangguran makin banyak gini karna covid.
+ https://t.co/Edlsj3jB2V</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>1271365549415518208</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Jika seandainya tidak ada wabah virus corona (Covid-19) artinya kemendikbud tidak akan mempersiapkan strategi belajar dari rumah. Akibatnya banyak intansi yang belum siap ketika menggunakan sistem pjj yang mengakibatkan pendidikan menjadi tidak efektif.#StayHome #pjj #pendidikan https://t.co/owQsRB4r8v</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>1273525862814543873</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Waktu itu masih sering nyanyi live, gara gara corona semua jobjoban tertunda :( https://t.co/SSC7Dhy9l0</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>1273873398519619585</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Mendalami agama gara-gara corona.
+https://t.co/85xZ0b235m https://t.co/eprBK9MIep</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>1272015266331766784</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>yah sedih banget gak wisuda 😭 emang nih gara gara corona 😒😤 https://t.co/673k5AwuV2</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>1271615273997492224</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Gara gara corona ngga bisa touring lagi.
+ #gunungkidulGGC https://t.co/cSLAcjGqqj</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>1273114036239040512</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Corona mengubah segalanya, sampai sifat orang bisa diubah juga gara" tu virus:(</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>1271297795891138560</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Gara-gara corona, mendaftar sekolah jadi ribet. 😩</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>1273182211957800962</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Mo bilang makasi ke corona. Kalo ngga ada virus itu keknya bakal ngga bisa ngehargain waktu deh</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>1225348280722190342</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>makasi juga untuk corona yg telah mengingatkan untuk makan yg sehat</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>1272857766550360064</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Terimakasih Corona berkat diri mu ibadah ku menjadi sangat khusuk tanpa mikir hal" duniawi,berkat dirimu ibadah ku tanpa rongga,dan terimakasih corona telah mengajarkan ku arti kebersihan sesungguhnya :))</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>1272495776208318465</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Sepertinya berkat corona, banyak perempuan jadi pinter masak</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>1245230720395530240</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Berkat corona polusi udara berkurang. 
+Berkat corona, kita dipisahkan, tambah rindu, makin sayang.
+Mungkin ini cara Tuhan, untuk menjaga bumi kita, dan juga hubungan kita. https://t.co/WjHQkFdpOl</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>1271279952696991745</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>kenapa harus ada corona dan kenapa aku tak punya uang</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>1265166220485001216</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Corona kenapa nggak selese selese terus aku kapan ketemu doi.</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>1260511009913143296</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Kenapa corona datengnya pas w baru lulus sih kan jadi makin susah cari kerja</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>1257558634034323456</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>saya bisa mengerti kenapa rs melakukan prosedur seperti itu. dikit dikit dicurigai corona. karena ya buat jaga kesehatan dan keselamatan tenaga media serta pasien lainnya. bukan karena pengaruh elit global.</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>1253292359938306058</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Corona tidak menular lewat chat ataupun suara.
+Tapi kenapa komunikasi kita ikut terjeda?</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>1248911658891636736</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Kenapa si Corona datangnya tiba-tiba padahal kan bisa dibicarakan baik baik</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>1248409719732989961</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>kenapa corona warna kelabu merah bukan warna pelangi 😅☝🏻</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>1247149398603091974</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Kalo di rumah kan ya di rumah aja kan. Kenapa si harus ada jam malam? Yang mau dihindarin tu corona atau kuntilanak emangnya</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>1272531616850558981</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Untung mantan aku nikah pas ada corona jadi kalo ga dateng ada alasan....</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>1265837451215421442</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Untung corona tidak menular lewat pikiran jadi aku bebas mikirin kamu</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>1247448241668382720</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Untung sebelum corona menyerang gw udah ulangtahun duluan 😁</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>1251498360172711936</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Sumpah baru kali ini sedeket ini sama keluarga, makasih covid aku bahagia
+#imjustakidchallenge #imjustakid https://t.co/zMX7tKUw8Y</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>1271282335544078336</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>yg perlu di pahami dari covid adalah sehabis rapid test rangorang pada byk ucap alhamdulillah. jadinyanya kan org2 pd bersyukur. https://t.co/S2JPG72qQu</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>1260143297864937478</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Cuma mau bilang makasih sama pandemic covid-19 yg bikin kerja WFH... hikmahnya, saya ada wkt buat improve skill yg lain buat eksplorasi potensi karya saya tidak hanya dalam bentuk ilustrasi aja;)) mau bilang makasih atas hikmah semua ini... dulu mau nyoba hal lain aja ga sempet</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>1271648130165952512</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>@subtanyarl Yang lucu di daerahku udah ada 2 yang meninggal gara2 TBC, tapi pihak rumah sakit menawarkan uang 15-30jt kepada keluarga almarhum supaya meninggalnya bisa diklaim sebagai COVID-19.</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>1273208158782021634</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Hikmah covid : krl jam pulang kerja bisa longgar
+Gini kan enak hehehe https://t.co/Q7cmYzWkYf</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>1272709524940451841</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>mau nyalahin covid tapi da berjasa si covid teh , dilema</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>1272544313524711424</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>andai tidak ada covid pasti smua ngga begini ya, yaudah memang sudah jalannya. ada hikmah dibalik smua ini🙏🙏</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>1271567722631974912</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>@detikcom Covid-19 adalah cara Tuhan memberi cobaan dan pembelajaran massal kepada manusia dan memperbaiki keseimbangan bumi. Gunakan kesempatan ini untuk menimba hikmah dan memperbaiki diri, karena setelah pandemi, kita akan memasuki kehidupan baru yang lebih baik. #NewNormalNewSpirit</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>1258997164639842306</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>SALAH SATU HIKMAH WABAH COVID-19 adalah ; 
+.
+.
+.
+Selalu menjaga kebersihan diri &amp;amp; lingkungan.
+.
+.
+.
+. https://t.co/cvpNumJg3d</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>1247022441483796481</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Ada hikmah dibalik Wabah Covid 19. Alam "sehat" ktk kt semua "istirahat" dlm kekhawatiran ditengah wabah penyakit.Pembelajaran berharga buat kt untuk sll menjaga kebersihan dan alam.Pembangunan dan kehidupan kt paska wabah hrs bnyk berubah,lebih ramah dg alam.
+Gambar; Tes Torres https://t.co/J7F0dOv5YE</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>1273920537320812545</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>@Bluebirdgroup Saya galau antara tidak ingin membuat driver kehilangan pekerjaan dan tanggung jawab saya melindungi pelanggan lain. Karena itu saya menghimbau ke perushaan untuk mengingatkan dan juga memfasilitasi usaha2 pencegahan penularan SARCoV2 penyebab covid 19.</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>1273893084560896000</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Makin parno keluar rumah
+Antara kene covid, atau kena jerat tali layangan
+Duh</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>1271495158857695233</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Hidup berdamai dengan COVID-19, bisakah? https://t.co/yLOfZ19q94</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>1272748373850771456</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Kemaren² aku bingung, kok tumben banget aku bangun pagi. Eh ternyata itu sudah disiapkan dari diriku untuk masuk sekolah karena obat covid udh ditemuin. Wkwk</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>1273849507394891783</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>beruntung banget bisa kenal dia di masa pandemi, makasih Covid</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>1271485287814672384</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Sumpah stres banget. Corona kenapa sih gamau pergi😭 mau pulang ke rumah akutu😭</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>1273628691059228673</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Malem ini baru sadar, KALO DIITUNG-ITUNG LAGI RUGI BANGET ANJIR LIBUR CORONA BERAPA DUIT BEKEL YANG UDAH ILAAAANG😭</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>1242381078649655298</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Guys, gue tau yg rugi semenjak corona bukan hanya bisnis-bisnisan, tapi juga yang statusnya probation kena cut off apalagi yg tempat kerjanya di bagian hospitality dan f&amp;amp;b kayak gue. 
+Iya, gue salah satu yg baru saja ditelp atasan gue dan di cut off karena pandemi ini.</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>1273842574449537024</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Gimana kabarnya para lulusan corona ? https://t.co/q10dDbxyJN</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>1273017269384122370</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>@KemenkesRI Alhamdulilah corona di indo sdh melandai ...trmksh pemrintah kerja kalian hebat</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>1273943142056595458</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Berkat corona aku jadi punya alesan untuk tidak cukur rambut. Tapi tetep aja, corona asu.</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>1272066146255007744</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Salah satu hikmah pandemi covid nih, orang jadi sadar akan kesehatan. Banyak yg mulai olahraga lagi, yg lari makin rame, yg sepedahan apalagi... Ntapss lahh semoga pada konsisten ya guys, karna berkeringat itu sehat</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>1273422573070462977</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>selama corona gue rajin bgt nabung😭👍🏻 https://t.co/biwdf2WVWN</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>1243463420990504960</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Puji Tuhan, Corona membuat dunia ini menjadi damai, senyap tanpa hiru pikuk https://t.co/RwmBDWeV1Q</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>1272177167913213954</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Astaga corona buruan da kelar gw mau ketemu pacar fuk gw kangen bgt fuk</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
